--- a/DB設計/world-heritage-DB.xlsx
+++ b/DB設計/world-heritage-DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aonoshin/Laravel/world-heritage/DB設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC8D137-E339-0F45-B47F-04CE9333E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70E8748-C846-8E43-B3F6-C86E01133BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16620" activeTab="1" xr2:uid="{75E3E4B3-8499-DC42-9E76-859E00BB0C89}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16620" firstSheet="1" activeTab="7" xr2:uid="{75E3E4B3-8499-DC42-9E76-859E00BB0C89}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="209">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -264,29 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集（写真）</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シャシn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集確認（写真）</t>
-    <rPh sb="0" eb="1">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニn</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャシn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘルプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,32 +273,6 @@
   </si>
   <si>
     <t>プライバシーポリシー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の投稿一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ジブn</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お知らせ受信（主に運営から）</t>
-    <rPh sb="4" eb="6">
-      <t>ジュシn</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オモニ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ウンエイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -685,80 +636,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t xml:space="preserve">ナケレバ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub_image_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub_image_2</t>
-  </si>
-  <si>
-    <t>sub_image_3</t>
-  </si>
-  <si>
-    <t>sub_image_4</t>
-  </si>
-  <si>
-    <t>sub_image_5</t>
-  </si>
-  <si>
-    <t>sub_image_6</t>
-  </si>
-  <si>
-    <t>sub_image_7</t>
-  </si>
-  <si>
-    <t>sub_image_8</t>
-  </si>
-  <si>
-    <t>sub_image_9</t>
-  </si>
-  <si>
-    <t>sub_image_10</t>
-  </si>
-  <si>
-    <t>sub_image_11</t>
-  </si>
-  <si>
-    <t>sub_image_12</t>
-  </si>
-  <si>
-    <t>sub_image_13</t>
-  </si>
-  <si>
-    <t>sub_image_14</t>
-  </si>
-  <si>
-    <t>sub_image_15</t>
-  </si>
-  <si>
-    <t>sub_image_16</t>
-  </si>
-  <si>
-    <t>sub_image_17</t>
-  </si>
-  <si>
-    <t>sub_image_18</t>
-  </si>
-  <si>
-    <t>sub_image_19</t>
-  </si>
-  <si>
-    <t>sub_image_20</t>
-  </si>
-  <si>
-    <t>画面下に表示させる画像</t>
-    <rPh sb="0" eb="3">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1104,27 +981,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジブn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿（他人）</t>
-    <rPh sb="0" eb="1">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>（</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タニn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿詳細画面
-・「お気に入り」ができる</t>
-    <rPh sb="0" eb="1">
-      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1821,6 +1677,184 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register/mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register/profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/register/complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/profile/image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/withdrawal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/withdrawal/complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/{id}/posts/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/{id}/posts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/{id}/posts/{id}/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/{id}/posts/{id}/edit/check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/countries/{name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/countries/{name}/world-heritage/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/countries/{name}/world-heritage/{id}/constitution-assets/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧画面
+・1ページ20件の表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/countries/{name}/world-heritage/{id}/posts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/countries/{name}/world-heritage/{id}/posts/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細画面（他人＋自分の投稿）
+・「お気に入り」ができる</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/help</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/contact/form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/contact/form/check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/contact/complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/privacy-policy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ower-profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：表示中　1：削除</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:表示 1:非表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1868,7 +1902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1883,6 +1917,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2220,7 +2257,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2233,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -2242,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2250,34 +2287,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42">
@@ -2288,56 +2325,56 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="84">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="42">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -2348,10 +2385,10 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -2415,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2438,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2447,7 +2484,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -2489,7 +2526,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2498,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2507,13 +2544,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2522,7 +2559,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2540,7 +2577,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -2558,7 +2595,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -2702,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2725,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2734,7 +2771,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -2755,7 +2792,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2776,7 +2813,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2785,7 +2822,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2794,13 +2831,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2809,7 +2846,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2827,7 +2864,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -2845,7 +2882,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -2946,222 +2983,323 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4901B5-1E1E-EA44-84E0-A146D777F856}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="63">
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="42">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42">
       <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="63">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="63">
-      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="42">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="42">
-      <c r="A10" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42">
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="21">
-      <c r="A11" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42">
+      <c r="A11" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="84">
-      <c r="A12" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="21">
-      <c r="A13" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="84">
+      <c r="A13" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="63">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="63">
+      <c r="A18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="42">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="105">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="63">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="63">
-      <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="42">
-      <c r="A21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="42">
-      <c r="A22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="105">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="21">
+    <row r="24" spans="1:3" ht="21">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="42">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="42">
-      <c r="A26" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="21">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="21">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A24:A26"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3185,10 +3323,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="210">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
@@ -3196,35 +3334,35 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="42">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="147">
@@ -3232,203 +3370,203 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="42">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="42">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="21">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="21">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="42">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="42">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="21">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="42">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="42">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="21">
       <c r="A25" s="4" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="21">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="42">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="42">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="21">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="21">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="42">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="21">
@@ -3436,45 +3574,45 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="21">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="42">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="63">
       <c r="A42" s="4" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="21">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="21">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="42">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3498,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8C148-0D62-3046-96E0-2C16A7A0DB1D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3539,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3562,10 +3700,10 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3589,7 +3727,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3601,7 +3739,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -3613,7 +3751,7 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3637,7 +3775,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3646,14 +3784,14 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3662,14 +3800,14 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3700,10 +3838,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -3712,7 +3850,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3721,7 +3859,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -3733,7 +3871,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -3745,7 +3883,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -3838,7 +3976,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3878,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3901,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3910,7 +4048,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3946,7 +4084,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3955,7 +4093,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -3970,7 +4108,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -3985,7 +4123,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -4003,7 +4141,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -4021,7 +4159,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -4030,15 +4168,25 @@
         <v>22</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
@@ -4167,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4190,7 +4338,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4199,7 +4347,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -4211,7 +4359,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4220,7 +4368,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -4238,7 +4386,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -4256,7 +4404,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -4274,7 +4422,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -4432,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4455,7 +4603,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4464,7 +4612,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -4476,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4485,7 +4633,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -4503,7 +4651,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -4521,7 +4669,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -4539,7 +4687,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -4657,7 +4805,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4697,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4726,7 +4874,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -4762,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4771,7 +4919,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -4789,7 +4937,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -4799,7 +4947,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4808,7 +4956,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -4826,7 +4974,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -4844,7 +4992,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -4945,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EAB593-41AD-FD48-B95A-D10C3E397CDC}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4988,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5011,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5035,7 +5183,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5044,7 +5192,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -5056,7 +5204,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5080,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5089,383 +5237,133 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5478,8 +5376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40FA83-B293-B440-871B-6A0DBC4FE126}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5519,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5563,7 +5461,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5572,7 +5470,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -5582,7 +5480,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5606,7 +5504,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5615,7 +5513,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -5633,7 +5531,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -5651,15 +5549,20 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
@@ -5793,7 +5696,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5833,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5856,7 +5759,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5880,7 +5783,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5910,14 +5813,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5926,7 +5829,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -5935,7 +5838,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5944,7 +5847,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -5953,7 +5856,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5962,7 +5865,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -5974,7 +5877,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5983,7 +5886,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -6001,7 +5904,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -6019,7 +5922,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
